--- a/Docu/planificació.xlsx
+++ b/Docu/planificació.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pol\Google Drive\Uni\7e\TFG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pol\Google Drive\Uni\7e\TFG\TFG\Docu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B0AE6E-F697-4887-9FF0-697B6F62DF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F70414-B522-4B95-85E0-F78D3B8E4FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="10845" windowWidth="29040" windowHeight="15840" xr2:uid="{E88BB3F1-09F3-4588-AFFB-F63D9088AA0C}"/>
   </bookViews>
@@ -174,13 +174,19 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -300,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -317,18 +323,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -338,23 +338,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -672,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA1E27C-7A0F-42E0-A48F-00178EF415AF}">
   <dimension ref="C5:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -685,13 +709,13 @@
   <sheetData>
     <row r="5" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="3:4" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -702,108 +726,108 @@
       <c r="C8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="3:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="3:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="3:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -811,7 +835,7 @@
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -819,7 +843,7 @@
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -827,7 +851,7 @@
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -835,7 +859,7 @@
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -843,7 +867,7 @@
       </c>
     </row>
     <row r="26" spans="3:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -851,7 +875,7 @@
       </c>
     </row>
     <row r="27" spans="3:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -859,7 +883,7 @@
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -867,7 +891,7 @@
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -875,7 +899,7 @@
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -883,7 +907,7 @@
       </c>
     </row>
     <row r="31" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="5" t="s">
